--- a/data/trans_orig/IP18A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD8FFC5-70BD-474E-9796-4CCD97A75ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73961A66-D443-47E6-B7BF-12038CA498EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{509B014D-8040-4AB5-8559-CB6C1682EDFD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA84A1F7-FE2D-4650-8FED-ECE191C262A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="233">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -103,55 +103,55 @@
     <t>17,41%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -160,55 +160,55 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -220,31 +220,31 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>12,7%</t>
+    <t>12,5%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>87,3%</t>
+    <t>87,5%</t>
   </si>
   <si>
     <t>95,02%</t>
@@ -253,73 +253,73 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -331,406 +331,412 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>81,82%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA6E4B-8412-4901-A80E-E8CD48405F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5DBDC1-54E4-4E63-88BB-637E3A0985D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2043,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670D5AD0-5488-4645-9B55-591148BF1CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE96F11E-8227-4994-8C5B-FD02D7DC4B04}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,10 +2510,10 @@
         <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2528,13 @@
         <v>411733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>542</v>
@@ -2537,13 +2543,13 @@
         <v>373303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1130</v>
@@ -2552,13 +2558,13 @@
         <v>785037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2632,13 @@
         <v>19150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -2641,13 +2647,13 @@
         <v>20769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2656,13 +2662,13 @@
         <v>39919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2683,13 @@
         <v>144552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>191</v>
@@ -2692,13 +2698,13 @@
         <v>135297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>394</v>
@@ -2707,13 +2713,13 @@
         <v>279848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2787,13 @@
         <v>87591</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -2796,13 +2802,13 @@
         <v>84942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>245</v>
@@ -2811,13 +2817,13 @@
         <v>172533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2838,13 @@
         <v>622833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>836</v>
@@ -2847,7 +2853,7 @@
         <v>579534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>161</v>
@@ -2859,7 +2865,7 @@
         <v>1720</v>
       </c>
       <c r="N17" s="7">
-        <v>1202368</v>
+        <v>1202367</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>163</v>
@@ -2910,7 +2916,7 @@
         <v>1965</v>
       </c>
       <c r="N18" s="7">
-        <v>1374901</v>
+        <v>1374900</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -2944,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D3EB6-6262-4303-A103-BC258DFFCDEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CA8B3-5E78-4B26-9450-E62F78EB2D93}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3247,7 @@
         <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3262,13 @@
         <v>57558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -3271,13 +3277,13 @@
         <v>52018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -3286,13 +3292,13 @@
         <v>109576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3366,13 @@
         <v>47218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -3375,13 +3381,13 @@
         <v>41644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -3390,10 +3396,10 @@
         <v>88862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>190</v>
@@ -3411,13 +3417,13 @@
         <v>388720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3426,13 +3432,13 @@
         <v>392029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1144</v>
@@ -3441,13 +3447,13 @@
         <v>780749</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3521,13 @@
         <v>16488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3530,13 +3536,13 @@
         <v>16937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3545,13 +3551,13 @@
         <v>33425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3572,13 @@
         <v>155189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3581,13 +3587,13 @@
         <v>135723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>427</v>
@@ -3596,13 +3602,13 @@
         <v>290912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3676,13 @@
         <v>68213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -3685,13 +3691,13 @@
         <v>61224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3700,13 +3706,13 @@
         <v>129437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,28 +3727,28 @@
         <v>601467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>871</v>
       </c>
       <c r="I17" s="7">
-        <v>579769</v>
+        <v>579768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>1730</v>
@@ -3751,13 +3757,13 @@
         <v>1181236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3790,7 @@
         <v>966</v>
       </c>
       <c r="I18" s="7">
-        <v>640993</v>
+        <v>640992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/IP18A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73961A66-D443-47E6-B7BF-12038CA498EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B489343-C91A-4EBE-AAD5-67AF280ABA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA84A1F7-FE2D-4650-8FED-ECE191C262A2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4236ED3B-BCA1-450D-BA49-6B36DBF83EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,676 +67,667 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>7,95%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1139,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5DBDC1-54E4-4E63-88BB-637E3A0985D1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB79B3A-C4F1-4B29-A48C-3DDEA6DED1F1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1266,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15062</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1281,81 +1272,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12893</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>27955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>56335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="I5" s="7">
+        <v>61163</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>117498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,151 +1359,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>71397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>145453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>12893</v>
+        <v>24835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>15062</v>
+        <v>41660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="N7" s="7">
-        <v>27955</v>
+        <v>66495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>91</v>
+        <v>523</v>
       </c>
       <c r="D8" s="7">
-        <v>61163</v>
+        <v>347491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>555</v>
       </c>
       <c r="I8" s="7">
-        <v>56335</v>
+        <v>367651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>1078</v>
       </c>
       <c r="N8" s="7">
-        <v>117498</v>
+        <v>715142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,153 +1514,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>106</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>71397</v>
+        <v>409311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>1179</v>
       </c>
       <c r="N9" s="7">
-        <v>145453</v>
+        <v>781637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>41660</v>
+        <v>16257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11715</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>41</v>
       </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>24835</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>101</v>
-      </c>
       <c r="N10" s="7">
-        <v>66495</v>
+        <v>27972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>367651</v>
+        <v>138037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>523</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>347491</v>
+        <v>128206</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1078</v>
+        <v>393</v>
       </c>
       <c r="N11" s="7">
-        <v>715142</v>
+        <v>266243</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,153 +1669,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>409311</v>
+        <v>154294</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1179</v>
+        <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>781637</v>
+        <v>294215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>11715</v>
+        <v>56154</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>16257</v>
+        <v>66268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="N13" s="7">
-        <v>27972</v>
+        <v>122422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>808</v>
       </c>
       <c r="D14" s="7">
-        <v>128206</v>
+        <v>541864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>837</v>
       </c>
       <c r="I14" s="7">
-        <v>138037</v>
+        <v>557020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>393</v>
+        <v>1645</v>
       </c>
       <c r="N14" s="7">
-        <v>266243</v>
+        <v>1098884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,216 +1824,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="D15" s="7">
-        <v>139921</v>
+        <v>598018</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>154294</v>
+        <v>623288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>434</v>
+        <v>1830</v>
       </c>
       <c r="N15" s="7">
-        <v>294215</v>
+        <v>1221306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>101</v>
-      </c>
-      <c r="D16" s="7">
-        <v>66268</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56154</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>185</v>
-      </c>
-      <c r="N16" s="7">
-        <v>122422</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>838</v>
-      </c>
-      <c r="D17" s="7">
-        <v>557746</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>808</v>
-      </c>
-      <c r="I17" s="7">
-        <v>541864</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1646</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1099610</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>939</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2049,8 +1890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE96F11E-8227-4994-8C5B-FD02D7DC4B04}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A39BA8-264F-4BCC-8757-6680EC325533}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2066,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2167,96 +2008,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11885</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>27645</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>70934</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65907</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>136841</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,151 +2110,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>86694</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I6" s="7">
+        <v>77792</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>164486</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>11885</v>
+        <v>48413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>15760</v>
+        <v>56556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>27645</v>
+        <v>104969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>542</v>
       </c>
       <c r="D8" s="7">
-        <v>65907</v>
+        <v>373303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>103</v>
+        <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>70934</v>
+        <v>411733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>195</v>
+        <v>1130</v>
       </c>
       <c r="N8" s="7">
-        <v>136841</v>
+        <v>785037</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,153 +2265,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>109</v>
+        <v>611</v>
       </c>
       <c r="D9" s="7">
-        <v>77792</v>
+        <v>421716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>125</v>
+        <v>668</v>
       </c>
       <c r="I9" s="7">
-        <v>86694</v>
+        <v>468289</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>234</v>
+        <v>1279</v>
       </c>
       <c r="N9" s="7">
-        <v>164486</v>
+        <v>890006</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>56556</v>
+        <v>20769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>48413</v>
+        <v>19150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>104969</v>
+        <v>39919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>588</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>411733</v>
+        <v>135297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>542</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>373303</v>
+        <v>144552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1130</v>
+        <v>394</v>
       </c>
       <c r="N11" s="7">
-        <v>785037</v>
+        <v>279848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,153 +2420,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>468289</v>
+        <v>156066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>611</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>421716</v>
+        <v>163702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1279</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>890006</v>
+        <v>319767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>19150</v>
+        <v>84942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I13" s="7">
-        <v>20769</v>
+        <v>87591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="N13" s="7">
-        <v>39919</v>
+        <v>172533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>203</v>
+        <v>836</v>
       </c>
       <c r="D14" s="7">
-        <v>144552</v>
+        <v>579534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>191</v>
+        <v>883</v>
       </c>
       <c r="I14" s="7">
-        <v>135297</v>
+        <v>622192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>394</v>
+        <v>1719</v>
       </c>
       <c r="N14" s="7">
-        <v>279848</v>
+        <v>1201726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,216 +2575,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>956</v>
       </c>
       <c r="D15" s="7">
-        <v>163702</v>
+        <v>664476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>1008</v>
       </c>
       <c r="I15" s="7">
-        <v>156066</v>
+        <v>709783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>1964</v>
       </c>
       <c r="N15" s="7">
-        <v>319767</v>
+        <v>1374259</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>125</v>
-      </c>
-      <c r="D16" s="7">
-        <v>87591</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84942</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M16" s="7">
-        <v>245</v>
-      </c>
-      <c r="N16" s="7">
-        <v>172533</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>884</v>
-      </c>
-      <c r="D17" s="7">
-        <v>622833</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="7">
-        <v>836</v>
-      </c>
-      <c r="I17" s="7">
-        <v>579534</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1720</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1202367</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1009</v>
-      </c>
-      <c r="D18" s="7">
-        <v>710424</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>956</v>
-      </c>
-      <c r="I18" s="7">
-        <v>664476</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1965</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1374900</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2950,8 +2641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CA8B3-5E78-4B26-9450-E62F78EB2D93}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95519C72-7FB2-4C1C-98B7-F8DC43F36846}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2967,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3068,88 +2759,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2642</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4507</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7149</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52018</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57558</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="N5" s="7">
+        <v>109576</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,147 +2861,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="N6" s="7">
+        <v>116725</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>4507</v>
+        <v>41644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>2642</v>
+        <v>47218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="N7" s="7">
-        <v>7149</v>
+        <v>88862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="D8" s="7">
-        <v>57558</v>
+        <v>392029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="I8" s="7">
-        <v>52018</v>
+        <v>388720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>159</v>
+        <v>1144</v>
       </c>
       <c r="N8" s="7">
-        <v>109576</v>
+        <v>780749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,153 +3016,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>656</v>
       </c>
       <c r="D9" s="7">
-        <v>62065</v>
+        <v>433673</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="I9" s="7">
-        <v>54660</v>
+        <v>435938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>170</v>
+        <v>1277</v>
       </c>
       <c r="N9" s="7">
-        <v>116725</v>
+        <v>869611</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>47218</v>
+        <v>16937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>41644</v>
+        <v>16488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>88862</v>
+        <v>33425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>553</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>388720</v>
+        <v>135723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
-        <v>591</v>
+        <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>392029</v>
+        <v>155189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>1144</v>
+        <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>780749</v>
+        <v>290912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,153 +3171,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>621</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>435938</v>
+        <v>152660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>656</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>433673</v>
+        <v>171677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1277</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>869611</v>
+        <v>324337</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>16488</v>
+        <v>61224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>16937</v>
+        <v>68213</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="N13" s="7">
-        <v>33425</v>
+        <v>129437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>871</v>
+      </c>
+      <c r="D14" s="7">
+        <v>579769</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
+        <v>859</v>
+      </c>
+      <c r="I14" s="7">
+        <v>601468</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="7">
-        <v>155189</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="7">
-        <v>202</v>
-      </c>
-      <c r="I14" s="7">
-        <v>135723</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>427</v>
+        <v>1730</v>
       </c>
       <c r="N14" s="7">
-        <v>290912</v>
+        <v>1181236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,216 +3326,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>171677</v>
+        <v>640993</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>152660</v>
+        <v>669681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>1923</v>
       </c>
       <c r="N15" s="7">
-        <v>324337</v>
+        <v>1310673</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>98</v>
-      </c>
-      <c r="D16" s="7">
-        <v>68213</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="7">
-        <v>95</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61224</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="7">
-        <v>193</v>
-      </c>
-      <c r="N16" s="7">
-        <v>129437</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>859</v>
-      </c>
-      <c r="D17" s="7">
-        <v>601467</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="7">
-        <v>871</v>
-      </c>
-      <c r="I17" s="7">
-        <v>579768</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1730</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1181236</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>957</v>
-      </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>966</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640992</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1923</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1310673</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
